--- a/tradept/Excel/Localization/Main/english/R任务系列_QuestKinds_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务系列_QuestKinds_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0FE526-FD8E-4713-A9D7-3E3E889A5597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06160C61-F760-4084-9CBC-372A6EE672CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>限时随机任务</t>
   </si>
   <si>
-    <t>Historia Principal</t>
-  </si>
-  <si>
-    <t>Aleatoria (Tiempo)</t>
+    <t>História principal</t>
+  </si>
+  <si>
+    <t>Aleatório (Tempo)</t>
   </si>
 </sst>
 </file>
@@ -153,25 +153,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
@@ -478,59 +475,63 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="67.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/tradept/Excel/Localization/Main/english/R任务系列_QuestKinds_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务系列_QuestKinds_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06160C61-F760-4084-9CBC-372A6EE672CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0FE526-FD8E-4713-A9D7-3E3E889A5597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>限时随机任务</t>
   </si>
   <si>
-    <t>História principal</t>
-  </si>
-  <si>
-    <t>Aleatório (Tempo)</t>
+    <t>Historia Principal</t>
+  </si>
+  <si>
+    <t>Aleatoria (Tiempo)</t>
   </si>
 </sst>
 </file>
@@ -153,22 +153,25 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
@@ -475,63 +478,59 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5" ht="67.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
     </row>

--- a/tradept/Excel/Localization/Main/english/R任务系列_QuestKinds_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务系列_QuestKinds_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0FE526-FD8E-4713-A9D7-3E3E889A5597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA51F324-13EE-4E1A-B8B7-092E3987BE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>Historia Principal</t>
   </si>
   <si>
-    <t>Aleatoria (Tiempo)</t>
+    <t>Aleatoria (Tempo)</t>
   </si>
 </sst>
 </file>
@@ -153,25 +153,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
@@ -478,59 +475,63 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="67.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/tradept/Excel/Localization/Main/english/R任务系列_QuestKinds_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务系列_QuestKinds_hotfix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA51F324-13EE-4E1A-B8B7-092E3987BE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF1CB68-8847-4D47-931A-A0186E5FBB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>限时随机任务</t>
   </si>
   <si>
-    <t>Historia Principal</t>
-  </si>
-  <si>
-    <t>Aleatoria (Tempo)</t>
+    <t>História Principal</t>
+  </si>
+  <si>
+    <t>Aleatória (Com Temporizador)</t>
   </si>
 </sst>
 </file>
@@ -475,13 +475,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="67.5">

--- a/tradept/Excel/Localization/Main/english/R任务系列_QuestKinds_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务系列_QuestKinds_hotfix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF1CB68-8847-4D47-931A-A0186E5FBB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E5E3B2-A406-44C1-A39D-77F20A30B719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
     <t>História Principal</t>
   </si>
   <si>
-    <t>Aleatória (Com Temporizador)</t>
+    <t>Eventos Aleatórios (Temporizados)</t>
   </si>
 </sst>
 </file>
@@ -475,15 +475,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="67.5">
